--- a/Results/Val_Time.xlsx
+++ b/Results/Val_Time.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a_PROGRAMAR\Tooth_Color_Validation\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E2745-BCFE-4729-931D-FD7A8B23D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD3E9D2-FEB3-4660-8E76-3D48F6DCD706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MariaTejada_Time" sheetId="2" r:id="rId1"/>
+    <sheet name="MariaTejada_Time" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -418,20 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -453,7 +453,7 @@
         <v>0.23812676668167121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4.7710818012555443</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -475,7 +475,7 @@
         <v>3.4490044236183168</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -486,7 +486,7 @@
         <v>2.9537421345710748</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -497,7 +497,7 @@
         <v>3.0319905877113338</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -508,7 +508,7 @@
         <v>4.0868366122245794</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -519,7 +519,7 @@
         <v>3.7950474182764689</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -530,7 +530,7 @@
         <v>4.8938493649164831</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -541,7 +541,7 @@
         <v>2.140131469567617</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -552,7 +552,7 @@
         <v>2.6340333461761469</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1.0163890242576601</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -574,7 +574,7 @@
         <v>4.3917821606000267</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -585,7 +585,7 @@
         <v>1.8892203370730081</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -596,7 +596,7 @@
         <v>5.2505788087844847</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -607,7 +607,7 @@
         <v>5.4193465828895571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -618,7 +618,7 @@
         <v>2.7328102827072138</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>

--- a/Results/Val_Time.xlsx
+++ b/Results/Val_Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD3E9D2-FEB3-4660-8E76-3D48F6DCD706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD0CD21-1729-4C9A-BE1D-5A379A7E5ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MariaTejada_Time" sheetId="1" r:id="rId1"/>

--- a/Results/Val_Time.xlsx
+++ b/Results/Val_Time.xlsx
@@ -1,103 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD0CD21-1729-4C9A-BE1D-5A379A7E5ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MariaTejada_Time" sheetId="1" r:id="rId1"/>
+    <sheet name="MariaTejada_Time" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Razvan_Time" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Tooth</t>
-  </si>
-  <si>
-    <t>Elapsed Time (seconds)</t>
-  </si>
-  <si>
-    <t>Elapsed Time (minutes)</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A3_5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,215 +408,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col width="22.7265625" customWidth="1" min="2" max="2"/>
+    <col width="22.1796875" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Elapsed Time (seconds)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Elapsed Time (minutes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>14.28760600090027</v>
       </c>
-      <c r="C2">
-        <v>0.23812676668167121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>286.26490807533258</v>
-      </c>
-      <c r="C3">
-        <v>4.7710818012555443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="C2" t="n">
+        <v>0.2381267666816712</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>286.2649080753326</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.771081801255544</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>206.940265417099</v>
       </c>
-      <c r="C4">
-        <v>3.4490044236183168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="C4" t="n">
+        <v>3.449004423618317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>177.2245280742645</v>
       </c>
-      <c r="C5">
-        <v>2.9537421345710748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>181.91943526268011</v>
-      </c>
-      <c r="C6">
-        <v>3.0319905877113338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="C5" t="n">
+        <v>2.953742134571075</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>181.9194352626801</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.031990587711334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>245.2101967334747</v>
       </c>
-      <c r="C7">
-        <v>4.0868366122245794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>227.70284509658811</v>
-      </c>
-      <c r="C8">
-        <v>3.7950474182764689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>293.63096189498901</v>
-      </c>
-      <c r="C9">
-        <v>4.8938493649164831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>128.40788817405701</v>
-      </c>
-      <c r="C10">
+      <c r="C7" t="n">
+        <v>4.086836612224579</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>227.7028450965881</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.795047418276469</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>293.630961894989</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.893849364916483</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>128.407888174057</v>
+      </c>
+      <c r="C10" t="n">
         <v>2.140131469567617</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>158.04200077056879</v>
-      </c>
-      <c r="C11">
-        <v>2.6340333461761469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>60.983341455459588</v>
-      </c>
-      <c r="C12">
-        <v>1.0163890242576601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>263.50692963600159</v>
-      </c>
-      <c r="C13">
-        <v>4.3917821606000267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>113.35322022438049</v>
-      </c>
-      <c r="C14">
-        <v>1.8892203370730081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>315.03472852706909</v>
-      </c>
-      <c r="C15">
-        <v>5.2505788087844847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>325.16079497337341</v>
-      </c>
-      <c r="C16">
-        <v>5.4193465828895571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>163.96861696243289</v>
-      </c>
-      <c r="C17">
-        <v>2.7328102827072138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>3161.6382672786708</v>
-      </c>
-      <c r="C18">
-        <v>52.693971121311193</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>158.0420007705688</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.634033346176147</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.98334145545959</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.01638902425766</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>263.5069296360016</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.391782160600027</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>113.3532202243805</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.889220337073008</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>315.0347285270691</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.250578808784485</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>325.1607949733734</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.419346582889557</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>163.9686169624329</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.732810282707214</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3161.638267278671</v>
+      </c>
+      <c r="C18" t="n">
+        <v>52.69397112131119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Elapsed Time (seconds)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Elapsed Time (minutes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>295.1412541866302</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.919020903110504</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.552957773208618</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02588262955347697</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>316.5555331707001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.275925552845001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>334.8742513656616</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.581237522761027</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>277.7714977264404</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.62952496210734</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>96.33048558235168</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.605508093039195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>131.974102973938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.199568382898967</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>311.7446539402008</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.19574423233668</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>177.7091755867004</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.961819593111674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>312.1818943023682</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.203031571706136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>202.8136773109436</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.380227955182393</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.127162933349609</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05211938222249349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>85.16896796226501</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.419482799371084</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>142.1574444770813</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.369290741284688</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1060.807533979416</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17.6801255663236</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>217.5400989055634</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.625668315092723</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3967.450692176819</v>
+      </c>
+      <c r="C18" t="n">
+        <v>66.12417820294698</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Val_Time.xlsx
+++ b/Results/Val_Time.xlsx
@@ -5,24 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\Exe_Val_Soft\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C08DC-79ED-4E21-A21A-72E723AE7974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D4F4B5-F103-416E-BA9B-E6E2CEDBAC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MariaTejada_Time" sheetId="1" r:id="rId1"/>
     <sheet name="Razvan_Time" sheetId="2" r:id="rId2"/>
     <sheet name="Oscar_Time" sheetId="3" r:id="rId3"/>
+    <sheet name="Antonio_Time" sheetId="4" r:id="rId4"/>
+    <sheet name="Inma_Time" sheetId="5" r:id="rId5"/>
+    <sheet name="Javi_Time" sheetId="6" r:id="rId6"/>
+    <sheet name="Cris_L_Time" sheetId="7" r:id="rId7"/>
+    <sheet name="Carmen_Time" sheetId="8" r:id="rId8"/>
+    <sheet name="Virginia_Time" sheetId="9" r:id="rId9"/>
+    <sheet name="Esther" sheetId="10" r:id="rId10"/>
+    <sheet name="Cris_Be" sheetId="11" r:id="rId11"/>
+    <sheet name="Cris_V" sheetId="12" r:id="rId12"/>
+    <sheet name="Marta" sheetId="13" r:id="rId13"/>
+    <sheet name="Eva" sheetId="14" r:id="rId14"/>
+    <sheet name="Carmen_S" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
   <si>
     <t>Tooth</t>
   </si>
@@ -636,6 +648,1284 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1EDBB7-64E4-4A8C-B1C1-F5D2110431F3}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>35.603954792022712</v>
+      </c>
+      <c r="C2">
+        <v>0.59339924653371179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>46.144319534301758</v>
+      </c>
+      <c r="C3">
+        <v>0.76907199223836265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>96.766494750976563</v>
+      </c>
+      <c r="C4">
+        <v>1.612774912516276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>245.16662645339969</v>
+      </c>
+      <c r="C5">
+        <v>4.0861104408899944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>112.3238220214844</v>
+      </c>
+      <c r="C6">
+        <v>1.8720637003580729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>90.908177852630615</v>
+      </c>
+      <c r="C7">
+        <v>1.515136297543844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>135.00484418869021</v>
+      </c>
+      <c r="C8">
+        <v>2.2500807364781701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>136.95703148841861</v>
+      </c>
+      <c r="C9">
+        <v>2.2826171914736428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>108.98265290260311</v>
+      </c>
+      <c r="C10">
+        <v>1.8163775483767191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>332.78542542457581</v>
+      </c>
+      <c r="C11">
+        <v>5.5464237570762638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.20548081398010251</v>
+      </c>
+      <c r="C12">
+        <v>3.4246802330017089E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>57.689553022384636</v>
+      </c>
+      <c r="C13">
+        <v>0.96149255037307735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>54.545721530914307</v>
+      </c>
+      <c r="C14">
+        <v>0.90909535884857173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>127.20131230354311</v>
+      </c>
+      <c r="C15">
+        <v>2.1200218717257182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>264.40856885910028</v>
+      </c>
+      <c r="C16">
+        <v>4.4068094809850056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>48.098992347717292</v>
+      </c>
+      <c r="C17">
+        <v>0.80164987246195474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1892.7929782867429</v>
+      </c>
+      <c r="C18">
+        <v>31.546549638112381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6104AE-9E57-4FD4-B8FF-1765CD1D87B3}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>158.05321168899539</v>
+      </c>
+      <c r="C2">
+        <v>2.63422019481659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>178.95708847045901</v>
+      </c>
+      <c r="C3">
+        <v>2.9826181411743158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>140.77184820175171</v>
+      </c>
+      <c r="C4">
+        <v>2.3461974700291952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>143.57257008552551</v>
+      </c>
+      <c r="C5">
+        <v>2.392876168092092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>185.61426424980161</v>
+      </c>
+      <c r="C6">
+        <v>3.093571070830027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>123.31599760055541</v>
+      </c>
+      <c r="C7">
+        <v>2.0552666266759241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>338.47894215583801</v>
+      </c>
+      <c r="C8">
+        <v>5.6413157025973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>143.59662485122681</v>
+      </c>
+      <c r="C9">
+        <v>2.39327708085378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>155.56519937515259</v>
+      </c>
+      <c r="C10">
+        <v>2.5927533229192101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>179.53457283973691</v>
+      </c>
+      <c r="C11">
+        <v>2.9922428806622818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>196.91359066963199</v>
+      </c>
+      <c r="C12">
+        <v>3.2818931778271989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>255.5998840332031</v>
+      </c>
+      <c r="C13">
+        <v>4.2599980672200521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>183.43772578239441</v>
+      </c>
+      <c r="C14">
+        <v>3.0572954297065729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>254.02458357810971</v>
+      </c>
+      <c r="C15">
+        <v>4.2337430596351622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>150.0368735790253</v>
+      </c>
+      <c r="C16">
+        <v>2.5006145596504208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>248.15292572975159</v>
+      </c>
+      <c r="C17">
+        <v>4.1358820954958597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>3035.6259028911591</v>
+      </c>
+      <c r="C18">
+        <v>50.593765048185993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4B7903-7496-4D68-AAE3-3EB39F7E049A}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>286.4067976474762</v>
+      </c>
+      <c r="C2">
+        <v>4.773446627457937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>131.36026644706729</v>
+      </c>
+      <c r="C3">
+        <v>2.1893377741177882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>178.40465521812439</v>
+      </c>
+      <c r="C4">
+        <v>2.9734109203020731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>70.477757930755615</v>
+      </c>
+      <c r="C5">
+        <v>1.174629298845927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>144.2656698226929</v>
+      </c>
+      <c r="C6">
+        <v>2.4044278303782152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>150.36402297019961</v>
+      </c>
+      <c r="C7">
+        <v>2.506067049503327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>51.242120027542107</v>
+      </c>
+      <c r="C8">
+        <v>0.85403533379236862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>128.35471343994141</v>
+      </c>
+      <c r="C9">
+        <v>2.1392452239990241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>195.45876741409299</v>
+      </c>
+      <c r="C10">
+        <v>3.2576461235682168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>119.40796637535099</v>
+      </c>
+      <c r="C11">
+        <v>1.990132772922516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>56.255878210067749</v>
+      </c>
+      <c r="C12">
+        <v>0.93759797016779578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>140.14072251319891</v>
+      </c>
+      <c r="C13">
+        <v>2.3356787085533139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>162.364871263504</v>
+      </c>
+      <c r="C14">
+        <v>2.7060811877250668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>207.0146210193634</v>
+      </c>
+      <c r="C15">
+        <v>3.450243683656057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>192.23997449874881</v>
+      </c>
+      <c r="C16">
+        <v>3.2039995749791461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>169.64887380599981</v>
+      </c>
+      <c r="C17">
+        <v>2.8274812300999961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2383.407678604126</v>
+      </c>
+      <c r="C18">
+        <v>39.723461310068757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7B731-DA82-4CB9-8770-45950A313898}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>91.935201168060303</v>
+      </c>
+      <c r="C2">
+        <v>1.5322533528010049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>22.535204648971561</v>
+      </c>
+      <c r="C3">
+        <v>0.37558674414952598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>70.749895095825195</v>
+      </c>
+      <c r="C4">
+        <v>1.1791649182637529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>33.828713417053223</v>
+      </c>
+      <c r="C5">
+        <v>0.56381189028422041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>31.741836071014401</v>
+      </c>
+      <c r="C6">
+        <v>0.52903060118357337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>56.229211807250977</v>
+      </c>
+      <c r="C7">
+        <v>0.93715353012084956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>76.167284488677979</v>
+      </c>
+      <c r="C8">
+        <v>1.269454741477966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>123.05578279495241</v>
+      </c>
+      <c r="C9">
+        <v>2.0509297132492059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>112.7374124526978</v>
+      </c>
+      <c r="C10">
+        <v>1.8789568742116289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>80.725781679153442</v>
+      </c>
+      <c r="C11">
+        <v>1.345429694652557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>87.508351564407349</v>
+      </c>
+      <c r="C12">
+        <v>1.4584725260734559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>180.19217395782471</v>
+      </c>
+      <c r="C13">
+        <v>3.003202899297079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>68.041966676712036</v>
+      </c>
+      <c r="C14">
+        <v>1.1340327779452011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>50.149516344070427</v>
+      </c>
+      <c r="C15">
+        <v>0.83582527240117388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>56.655231475830078</v>
+      </c>
+      <c r="C16">
+        <v>0.94425385793050132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>41.770529985427864</v>
+      </c>
+      <c r="C17">
+        <v>0.69617549975713089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1184.0240936279299</v>
+      </c>
+      <c r="C18">
+        <v>19.733734893798829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9EDFFA-3267-45C3-B9C8-32B699E51BF8}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>187.98987865448001</v>
+      </c>
+      <c r="C2">
+        <v>3.133164644241333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>165.07786464691159</v>
+      </c>
+      <c r="C3">
+        <v>2.751297744115194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>115.13881373405459</v>
+      </c>
+      <c r="C4">
+        <v>1.918980228900909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>128.6839306354523</v>
+      </c>
+      <c r="C5">
+        <v>2.1447321772575378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>94.546625852584839</v>
+      </c>
+      <c r="C6">
+        <v>1.5757770975430809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>126.0288307666779</v>
+      </c>
+      <c r="C7">
+        <v>2.1004805127779642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>338.55526280403137</v>
+      </c>
+      <c r="C8">
+        <v>5.6425877134005216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>114.364372253418</v>
+      </c>
+      <c r="C9">
+        <v>1.906072870890299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>68.530531167984009</v>
+      </c>
+      <c r="C10">
+        <v>1.1421755194664001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>108.6918768882751</v>
+      </c>
+      <c r="C11">
+        <v>1.811531281471253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>143.75620293617251</v>
+      </c>
+      <c r="C12">
+        <v>2.395936715602875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>138.61149764060971</v>
+      </c>
+      <c r="C13">
+        <v>2.310191627343495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>131.87597560882571</v>
+      </c>
+      <c r="C14">
+        <v>2.197932926813762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>139.03599858283999</v>
+      </c>
+      <c r="C15">
+        <v>2.3172666430473332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>72.730812311172485</v>
+      </c>
+      <c r="C16">
+        <v>1.2121802051862081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>110.6831548213959</v>
+      </c>
+      <c r="C17">
+        <v>1.844719247023265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2184.3016293048859</v>
+      </c>
+      <c r="C18">
+        <v>36.405027155081427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBAA29C-F709-4D57-BEBA-4FCF013D785E}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>139.18502616882321</v>
+      </c>
+      <c r="C2">
+        <v>2.319750436147054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>96.62303900718689</v>
+      </c>
+      <c r="C3">
+        <v>1.6103839834531151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>67.90899658203125</v>
+      </c>
+      <c r="C4">
+        <v>1.1318166097005209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>32.331231117248542</v>
+      </c>
+      <c r="C5">
+        <v>0.53885385195414226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>123.9501132965088</v>
+      </c>
+      <c r="C6">
+        <v>2.0658352216084799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>51.339544296264648</v>
+      </c>
+      <c r="C7">
+        <v>0.85565907160441079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>71.776643514633179</v>
+      </c>
+      <c r="C8">
+        <v>1.1962773919105529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>80.70470929145813</v>
+      </c>
+      <c r="C9">
+        <v>1.345078488190969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>48.547991037368767</v>
+      </c>
+      <c r="C10">
+        <v>0.8091331839561462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>85.698840141296387</v>
+      </c>
+      <c r="C11">
+        <v>1.4283140023549401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>33.88306188583374</v>
+      </c>
+      <c r="C12">
+        <v>0.56471769809722905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>61.94217848777771</v>
+      </c>
+      <c r="C13">
+        <v>1.032369641462962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>29.424764394760128</v>
+      </c>
+      <c r="C14">
+        <v>0.49041273991266893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>81.646838903427124</v>
+      </c>
+      <c r="C15">
+        <v>1.3607806483904521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>124.3398206233978</v>
+      </c>
+      <c r="C16">
+        <v>2.0723303437232969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>106.6518549919128</v>
+      </c>
+      <c r="C17">
+        <v>1.7775309165318809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1235.954653739929</v>
+      </c>
+      <c r="C18">
+        <v>20.59924422899882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
@@ -851,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD88DD1D-B269-43ED-9358-26040530D107}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1058,4 +2348,1282 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD11182-9A93-4AC9-BD81-29DA59F42795}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>97.010425329208374</v>
+      </c>
+      <c r="C2">
+        <v>1.6168404221534729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>88.403573036193848</v>
+      </c>
+      <c r="C3">
+        <v>1.473392883936564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>147.54392766952509</v>
+      </c>
+      <c r="C4">
+        <v>2.4590654611587519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>59.718128681182861</v>
+      </c>
+      <c r="C5">
+        <v>0.99530214468638101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>57.848274230957031</v>
+      </c>
+      <c r="C6">
+        <v>0.96413790384928388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>44.287485599517822</v>
+      </c>
+      <c r="C7">
+        <v>0.7381247599919637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>99.932220220565796</v>
+      </c>
+      <c r="C8">
+        <v>1.665537003676097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>55.634851455688477</v>
+      </c>
+      <c r="C9">
+        <v>0.92724752426147461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>48.250708818435669</v>
+      </c>
+      <c r="C10">
+        <v>0.80417848030726113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>55.922417879104607</v>
+      </c>
+      <c r="C11">
+        <v>0.93204029798507693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>189.772180557251</v>
+      </c>
+      <c r="C12">
+        <v>3.162869675954183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>52.438859939575202</v>
+      </c>
+      <c r="C13">
+        <v>0.87398099899291992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>32.170213460922241</v>
+      </c>
+      <c r="C14">
+        <v>0.53617022434870398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>131.51090717315671</v>
+      </c>
+      <c r="C15">
+        <v>2.191848452885945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>162.86940097808841</v>
+      </c>
+      <c r="C16">
+        <v>2.7144900163014731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>51.592913150787354</v>
+      </c>
+      <c r="C17">
+        <v>0.85988188584645586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1374.906488180161</v>
+      </c>
+      <c r="C18">
+        <v>22.915108136336009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5728FEF0-44FC-47D4-9F28-82282034031D}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>199.93366098403931</v>
+      </c>
+      <c r="C2">
+        <v>3.3322276830673219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>198.86895442008969</v>
+      </c>
+      <c r="C3">
+        <v>3.3144825736681618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>78.543387174606323</v>
+      </c>
+      <c r="C4">
+        <v>1.309056452910105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>30.161384582519531</v>
+      </c>
+      <c r="C5">
+        <v>0.50268974304199221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>84.920161485671997</v>
+      </c>
+      <c r="C6">
+        <v>1.4153360247611999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>24.335604667663571</v>
+      </c>
+      <c r="C7">
+        <v>0.40559341112772618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>63.279657602310181</v>
+      </c>
+      <c r="C8">
+        <v>1.0546609600385031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>25.176035642623901</v>
+      </c>
+      <c r="C9">
+        <v>0.41960059404373168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>19.235008716583248</v>
+      </c>
+      <c r="C10">
+        <v>0.32058347860972092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>40.336086273193359</v>
+      </c>
+      <c r="C11">
+        <v>0.67226810455322261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>171.76711130142209</v>
+      </c>
+      <c r="C12">
+        <v>2.862785188357035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>111.448094367981</v>
+      </c>
+      <c r="C13">
+        <v>1.8574682394663491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>34.792021989822388</v>
+      </c>
+      <c r="C14">
+        <v>0.57986703316370647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>43.3607337474823</v>
+      </c>
+      <c r="C15">
+        <v>0.72267889579137168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>151.99949336051941</v>
+      </c>
+      <c r="C16">
+        <v>2.5333248893419902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>82.583532333374023</v>
+      </c>
+      <c r="C17">
+        <v>1.3763922055562341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1360.7409286499019</v>
+      </c>
+      <c r="C18">
+        <v>22.679015477498371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B8A542-8682-49C6-AF92-07BB88EF12F6}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>59.318449020385742</v>
+      </c>
+      <c r="C2">
+        <v>0.98864081700642903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>163.9202108383179</v>
+      </c>
+      <c r="C3">
+        <v>2.7320035139719652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>77.127628803253174</v>
+      </c>
+      <c r="C4">
+        <v>1.28546048005422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>114.7136538028717</v>
+      </c>
+      <c r="C5">
+        <v>1.9118942300478621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>96.441221237182617</v>
+      </c>
+      <c r="C6">
+        <v>1.607353687286377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>61.554637670516968</v>
+      </c>
+      <c r="C7">
+        <v>1.025910627841949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>168.1840443611145</v>
+      </c>
+      <c r="C8">
+        <v>2.8030674060185752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100.0942652225494</v>
+      </c>
+      <c r="C9">
+        <v>1.6682377537091571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>146.22216725349429</v>
+      </c>
+      <c r="C10">
+        <v>2.437036120891571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>164.11517667770389</v>
+      </c>
+      <c r="C11">
+        <v>2.7352529446283982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>101.02111124992371</v>
+      </c>
+      <c r="C12">
+        <v>1.683685187498728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>137.92221736907959</v>
+      </c>
+      <c r="C13">
+        <v>2.2987036228179929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>45.11439061164856</v>
+      </c>
+      <c r="C14">
+        <v>0.75190651019414267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>148.08755683898929</v>
+      </c>
+      <c r="C15">
+        <v>2.468125947316488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>179.67990303039551</v>
+      </c>
+      <c r="C16">
+        <v>2.9946650505065922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>86.639969110488892</v>
+      </c>
+      <c r="C17">
+        <v>1.443999485174815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1850.1566030979161</v>
+      </c>
+      <c r="C18">
+        <v>30.835943384965262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E3BFAD-DB59-4FA5-AAE8-5988308F02C3}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>67.353102684020996</v>
+      </c>
+      <c r="C2">
+        <v>1.12255171140035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>59.058185577392578</v>
+      </c>
+      <c r="C3">
+        <v>0.98430309295654295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>108.4762327671051</v>
+      </c>
+      <c r="C4">
+        <v>1.807937212785085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>117.9400751590729</v>
+      </c>
+      <c r="C5">
+        <v>1.965667919317881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>98.027427911758423</v>
+      </c>
+      <c r="C6">
+        <v>1.633790465195974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>35.168607711791992</v>
+      </c>
+      <c r="C7">
+        <v>0.58614346186319988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>227.4783527851105</v>
+      </c>
+      <c r="C8">
+        <v>3.7913058797518411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>213.79792237281799</v>
+      </c>
+      <c r="C9">
+        <v>3.563298706213633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>150.53131937980649</v>
+      </c>
+      <c r="C10">
+        <v>2.5088553229967752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>125.0583221912384</v>
+      </c>
+      <c r="C11">
+        <v>2.0843053698539729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>187.58240079879761</v>
+      </c>
+      <c r="C12">
+        <v>3.126373346646627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>83.992366552352905</v>
+      </c>
+      <c r="C13">
+        <v>1.399872775872548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>133.7887806892395</v>
+      </c>
+      <c r="C14">
+        <v>2.2298130114873249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>115.26262855529789</v>
+      </c>
+      <c r="C15">
+        <v>1.921043809254964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>172.23961186408999</v>
+      </c>
+      <c r="C16">
+        <v>2.8706601977348329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>153.78131318092349</v>
+      </c>
+      <c r="C17">
+        <v>2.5630218863487242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2049.5366501808171</v>
+      </c>
+      <c r="C18">
+        <v>34.158944169680282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8BA132-C094-44F5-BD3C-383757C15B4D}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>121.6179671287537</v>
+      </c>
+      <c r="C2">
+        <v>2.0269661188125609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>225.02585506439209</v>
+      </c>
+      <c r="C3">
+        <v>3.7504309177398678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>191.90560936927801</v>
+      </c>
+      <c r="C4">
+        <v>3.1984268228212991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>23.284317016601559</v>
+      </c>
+      <c r="C5">
+        <v>0.38807195027669272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>301.24035286903381</v>
+      </c>
+      <c r="C6">
+        <v>5.02067254781723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>368.93330883979797</v>
+      </c>
+      <c r="C7">
+        <v>6.1488884806632997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>244.45805931091309</v>
+      </c>
+      <c r="C8">
+        <v>4.0743009885152182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>109.9300262928009</v>
+      </c>
+      <c r="C9">
+        <v>1.832167104880015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>146.47306871414179</v>
+      </c>
+      <c r="C10">
+        <v>2.441217811902364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>157.7788288593292</v>
+      </c>
+      <c r="C11">
+        <v>2.6296471476554868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>147.20158839225769</v>
+      </c>
+      <c r="C12">
+        <v>2.4533598065376281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>115.2615022659302</v>
+      </c>
+      <c r="C13">
+        <v>1.9210250377655029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>166.55374526977539</v>
+      </c>
+      <c r="C14">
+        <v>2.7758957544962559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>159.8677613735199</v>
+      </c>
+      <c r="C15">
+        <v>2.6644626895586652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>77.178117275238037</v>
+      </c>
+      <c r="C16">
+        <v>1.2863019545873009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>229.17381143569949</v>
+      </c>
+      <c r="C17">
+        <v>3.8195635239283239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2785.8839194774632</v>
+      </c>
+      <c r="C18">
+        <v>46.431398657957708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37AFFCA-DB4A-455C-B641-E5378B7B9093}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>66.536275863647461</v>
+      </c>
+      <c r="C2">
+        <v>1.108937931060791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>69.097631454467773</v>
+      </c>
+      <c r="C3">
+        <v>1.151627190907796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>58.76677942276001</v>
+      </c>
+      <c r="C4">
+        <v>0.97944632371266682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>65.552056312561035</v>
+      </c>
+      <c r="C5">
+        <v>1.0925342718760169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>173.18888688087461</v>
+      </c>
+      <c r="C6">
+        <v>2.8864814480145768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>125.10918831825261</v>
+      </c>
+      <c r="C7">
+        <v>2.0851531386375428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>132.36528182029721</v>
+      </c>
+      <c r="C8">
+        <v>2.2060880303382868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>36.007397174835212</v>
+      </c>
+      <c r="C9">
+        <v>0.60012328624725342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>77.921884059906006</v>
+      </c>
+      <c r="C10">
+        <v>1.2986980676651001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>50.667346715927117</v>
+      </c>
+      <c r="C11">
+        <v>0.8444557785987854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>58.530411005020142</v>
+      </c>
+      <c r="C12">
+        <v>0.975506850083669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>66.549103736877441</v>
+      </c>
+      <c r="C13">
+        <v>1.1091517289479571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>51.930699586868293</v>
+      </c>
+      <c r="C14">
+        <v>0.86551165978113809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>215.0982532501221</v>
+      </c>
+      <c r="C15">
+        <v>3.5849708875020339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>49.229799747467041</v>
+      </c>
+      <c r="C16">
+        <v>0.82049666245778397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>110.77289390563961</v>
+      </c>
+      <c r="C17">
+        <v>1.846214898427327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1407.3238892555239</v>
+      </c>
+      <c r="C18">
+        <v>23.455398154258731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Val_Time.xlsx
+++ b/Results/Val_Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D4F4B5-F103-416E-BA9B-E6E2CEDBAC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AFE12-57D5-4DB6-B2F9-0219A309B657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MariaTejada_Time" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="Marta" sheetId="13" r:id="rId13"/>
     <sheet name="Eva" sheetId="14" r:id="rId14"/>
     <sheet name="Carmen_S" sheetId="15" r:id="rId15"/>
+    <sheet name="Mamen" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="20">
   <si>
     <t>Tooth</t>
   </si>
@@ -129,7 +130,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1717,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBAA29C-F709-4D57-BEBA-4FCF013D785E}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
@@ -1919,6 +1921,219 @@
       </c>
       <c r="C18">
         <v>20.59924422899882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3EF9F5-E08A-4B49-B1F2-E5F7AEEE2207}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>146.78610682487491</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.4464351137479148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>141.77178597450259</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.3628630995750428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>160.64043569564819</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.67734059492747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>127.8929674625397</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.131549457708994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>138.3789656162262</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.3063160936037699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>110.9816977977753</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.849694963296254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>89.276718378067017</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.487945306301117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>401.59356617927551</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.693226102987925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>174.78371644020081</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.9130619406700129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>175.05250954627991</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.9175418257713321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>83.117189168930054</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.3852864861488341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>183.7641050815582</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.0627350846926369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>67.12937331199646</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.1188228885332741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>191.72359585762021</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.1953932642936711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>180.1698663234711</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.0028311053911851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>107.36919903755189</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.7894866506258651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2480.4317986965179</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41.340529978275299</v>
       </c>
     </row>
   </sheetData>
